--- a/Segundo sprint INSO.xlsx
+++ b/Segundo sprint INSO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Columna</t>
   </si>
@@ -180,9 +180,6 @@
     <t>En proceso</t>
   </si>
   <si>
-    <t>Implementación del codigo de la aplicación en PHP, HTML , de la parte del cliente</t>
-  </si>
-  <si>
     <t>Creación del código para la migración de la aplicación a un entorno web</t>
   </si>
   <si>
@@ -190,6 +187,12 @@
   </si>
   <si>
     <t>Análisis del código y depuración del mismo</t>
+  </si>
+  <si>
+    <t>Implementación del codigo de la aplicación en PHP, HTML , de la parte del cliente y empleado</t>
+  </si>
+  <si>
+    <t>Implementación del codigo de la aplicación en JavaScript y el CSS de la parte del cliente y empleado</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,7 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,7 +393,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,7 +737,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,110 +826,110 @@
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="15"/>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="15"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="10"/>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="15"/>
+      <c r="X4" s="18"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="15"/>
+      <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
-      <c r="AF4" s="14" t="s">
+      <c r="AF4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="15"/>
+      <c r="AG4" s="18"/>
       <c r="AH4" s="10"/>
-      <c r="AI4" s="14" t="s">
+      <c r="AI4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" s="15"/>
+      <c r="AJ4" s="18"/>
       <c r="AK4" s="10"/>
-      <c r="AL4" s="14" t="s">
+      <c r="AL4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AM4" s="15"/>
+      <c r="AM4" s="18"/>
       <c r="AN4" s="10"/>
-      <c r="AO4" s="14" t="s">
+      <c r="AO4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="15"/>
+      <c r="AP4" s="18"/>
       <c r="AQ4" s="10"/>
-      <c r="AR4" s="14" t="s">
+      <c r="AR4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AS4" s="15"/>
+      <c r="AS4" s="18"/>
       <c r="AT4" s="10"/>
-      <c r="AU4" s="14" t="s">
+      <c r="AU4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AV4" s="15"/>
+      <c r="AV4" s="18"/>
       <c r="AW4" s="10"/>
-      <c r="AX4" s="14" t="s">
+      <c r="AX4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="15"/>
+      <c r="AY4" s="18"/>
       <c r="AZ4" s="10"/>
-      <c r="BA4" s="14" t="s">
+      <c r="BA4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="BB4" s="15"/>
+      <c r="BB4" s="18"/>
       <c r="BC4" s="10"/>
-      <c r="BD4" s="14" t="s">
+      <c r="BD4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="15"/>
+      <c r="BE4" s="18"/>
       <c r="BF4" s="10"/>
-      <c r="BG4" s="14" t="s">
+      <c r="BG4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BH4" s="15"/>
+      <c r="BH4" s="18"/>
       <c r="BI4" s="10"/>
-      <c r="BJ4" s="14" t="s">
+      <c r="BJ4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BK4" s="15"/>
+      <c r="BK4" s="18"/>
       <c r="BL4" s="10"/>
-      <c r="BM4" s="14" t="s">
+      <c r="BM4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="BN4" s="15"/>
+      <c r="BN4" s="18"/>
       <c r="BO4" s="10"/>
-      <c r="BP4" s="14" t="s">
+      <c r="BP4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="BQ4" s="15"/>
+      <c r="BQ4" s="18"/>
     </row>
     <row r="5" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1094,15 +1097,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:69" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:69" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>52</v>
+      <c r="C6" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>46</v>
@@ -1262,11 +1265,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:69" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+    <row r="7" spans="2:69" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>48</v>
@@ -1281,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ref="I7:I8" si="18">G7-H7</f>
+        <f t="shared" ref="I7" si="18">G7-H7</f>
         <v>28</v>
       </c>
       <c r="J7" s="11"/>
@@ -1412,19 +1415,19 @@
         <v>13</v>
       </c>
       <c r="BQ7" s="12">
-        <f t="shared" ref="BQ7:BQ8" si="21">G7-BP7</f>
+        <f t="shared" ref="BQ7" si="21">G7-BP7</f>
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>49</v>
@@ -1439,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="18"/>
+        <f>G8-H8</f>
         <v>16</v>
       </c>
       <c r="J8" s="11"/>
@@ -1566,17 +1569,12 @@
         <v>10</v>
       </c>
       <c r="BQ8" s="12">
-        <f t="shared" si="21"/>
+        <f>G8-BP8</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="BP4:BQ4"/>
     <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AR4:AS4"/>
@@ -1584,6 +1582,11 @@
     <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="BA4:BB4"/>
     <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
